--- a/data/trans_camb/P57GLOBAL_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P57GLOBAL_R-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P57GLOBAL_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P57GLOBAL_R-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,59</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,05</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,67</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,41</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,28</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,5</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,69</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,97; 6,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,7; 22,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,17; -3,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,28; 8,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,36; 22,02</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,77; -3,93</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,41; 5,56</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,25; 20,62</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,32; -6,15</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,79%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,1%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,31%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,22%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,97%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,44%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,54%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,41%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,7; 10,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,54; 39,48</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,7; -5,95</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,54; 13,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,54; 36,54</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,27; -6,54</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,32; 9,23</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,97; 34,56</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,5; -10,22</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,52</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,72</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,2</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,54</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,75</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,12</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,8</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,96</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,83; 2,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,91; 17,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,48; 2,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,79; 8,87</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,71; 16,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,1; -8,78</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,05; 3,84</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,35; 15,95</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,87; -4,79</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,71%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,22%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,19%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,11%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,95%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,81%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,68%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,53%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,24; 3,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,6; 27,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,29; 3,59</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,46; 13,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,42; 24,97</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,75; -12,84</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,35; 5,76</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,23; 23,95</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,46; -7,12</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,04</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,45</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,63</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,45</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,81</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,73</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,18</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,15; 6,37</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,44; 17,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,1; -0,38</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,48; 9,71</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,59; 15,77</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,89; -5,12</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,64; 6,45</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,47; 14,7</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,38; -4,26</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,12%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,18%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,5%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,09%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,78%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,57%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,56%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,67; 9,45</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,32; 26,49</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,68; -0,64</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,62; 14,44</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,11; 23,08</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,06; -7,29</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,87; 9,36</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,64; 21,51</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,01; -6,09</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,33</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,4</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,85</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,97</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,2</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,87</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,33</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,8</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,82</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,92; 3,99</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,39; 14,59</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,41; -6,81</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,61; 14,75</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,59; 19,48</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,15; -0,78</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,33; 7,19</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,5; 15,78</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,16; -5,51</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,19%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,88%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,98%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,59%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,92%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,23%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,61%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,36%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,61%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,53; 5,38</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,81; 21,05</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,49; -9,44</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,92; 21,91</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,75; 28,74</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,15; -1,2</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,44; 10,44</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,38; 22,52</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,74; -7,81</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,26</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,25</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,19</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,44</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,52</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,18</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,81</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,36</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,76</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,81; 1,92</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,55; 16,78</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,6; 3,15</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,46; 3,85</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,63; 14,64</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,07; 1,37</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,49; 1,03</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,37; 14,31</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,5; -0,21</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,26%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,55%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,4%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,15%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,3%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,4%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,09%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,82%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,01%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,72; 2,84</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,38; 24,24</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,33; 4,57</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,45; 5,18</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,86; 19,95</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,34; 1,84</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,08; 1,42</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,56; 19,91</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,7; -0,29</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,43</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,46</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,17</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,79</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,85</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,01</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,5</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,08</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,52</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,23; 1,82</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,45; 8,21</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,8; -4,52</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,14; 2,23</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,49; 14,1</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,12; -4,5</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,83; 0,97</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,11; 9,93</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,39; -5,45</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,33%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,36%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,57%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,23%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,28%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,99%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,13%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,87%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,68%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,09; 2,32</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,8; 10,65</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,89; -5,76</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,52; 2,85</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,91; 18,09</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,62; -5,73</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,11; 1,26</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,06; 12,67</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,95; -7,02</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,56</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,48</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,14</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,49</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,54</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,0</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,32</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,8; 0,71</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,25; 13,44</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,5; -4,39</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,0; 5,23</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,56; 14,63</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,72; -5,32</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,68; 2,4</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,47; 13,41</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,56; -5,55</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,22%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,3%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,13%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,15%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,28%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,42%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,81%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,26%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,29; 1,02</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,92; 19,52</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,05; -6,43</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,37; 7,38</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,37; 20,64</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,3; -7,45</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,94; 3,39</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,49; 18,99</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,31; -7,87</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P57GLOBAL_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P57GLOBAL_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-13,05</t>
+          <t>-15,25</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-12,28</t>
+          <t>-14,23</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-12,69</t>
+          <t>-14,91</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-22,17; -3,51</t>
+          <t>-25,23; -5,76</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-21,77; -3,93</t>
+          <t>-24,2; -5,99</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-19,32; -6,15</t>
+          <t>-21,72; -8,0</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-21,31%</t>
+          <t>-24,92%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-19,44%</t>
+          <t>-22,53%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-20,41%</t>
+          <t>-23,98%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-35,7; -5,95</t>
+          <t>-40,24; -9,64</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-33,27; -6,54</t>
+          <t>-36,39; -9,5</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,14 +831,14 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-30,5; -10,22</t>
+          <t>-34,31; -13,31</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-4,2</t>
+          <t>-5,21</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-15,12</t>
+          <t>-21,79</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-9,96</t>
+          <t>-14,15</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,48; 2,4</t>
+          <t>-12,64; 1,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-22,1; -8,78</t>
+          <t>-39,96; -11,98</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-14,87; -4,79</t>
+          <t>-26,95; -7,58</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-6,19%</t>
+          <t>-7,68%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-21,81%</t>
+          <t>-31,43%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-14,53%</t>
+          <t>-20,65%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-16,29; 3,59</t>
+          <t>-17,98; 2,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-30,75; -12,84</t>
+          <t>-56,0; -17,07</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,14 +1047,14 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-21,46; -7,12</t>
+          <t>-39,35; -11,37</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-6,45</t>
+          <t>-7,29</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-9,81</t>
+          <t>-10,35</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-8,18</t>
+          <t>-8,85</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,1; -0,38</t>
+          <t>-13,08; -1,13</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-14,89; -5,12</t>
+          <t>-15,43; -5,65</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-12,38; -4,26</t>
+          <t>-13,05; -4,96</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-9,18%</t>
+          <t>-10,36%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-13,78%</t>
+          <t>-14,54%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-11,56%</t>
+          <t>-12,5%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-16,68; -0,64</t>
+          <t>-17,87; -1,63</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-20,06; -7,29</t>
+          <t>-20,8; -8,07</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,14 +1263,14 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-17,01; -6,09</t>
+          <t>-17,8; -7,13</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-13,85</t>
+          <t>-27,51</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-5,87</t>
+          <t>-8,71</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-9,82</t>
+          <t>-19,07</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-28,41; -6,81</t>
+          <t>-54,79; -8,33</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-11,15; -0,78</t>
+          <t>-18,96; -2,95</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-17,16; -5,51</t>
+          <t>-41,15; -8,1</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-18,98%</t>
+          <t>-37,69%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-8,23%</t>
+          <t>-12,21%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-13,61%</t>
+          <t>-26,44%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-36,49; -9,44</t>
+          <t>-71,95; -11,56</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-15,15; -1,2</t>
+          <t>-26,05; -4,33</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-23,74; -7,81</t>
+          <t>-56,66; -11,24</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-3,19</t>
+          <t>-4,0</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-4,18</t>
+          <t>-4,67</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-3,76</t>
+          <t>-4,43</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-8,6; 3,15</t>
+          <t>-9,44; 2,3</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-9,07; 1,37</t>
+          <t>-9,62; 0,81</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-7,5; -0,21</t>
+          <t>-8,18; -0,88</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-4,4%</t>
+          <t>-5,53%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-5,4%</t>
+          <t>-6,03%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-5,01%</t>
+          <t>-5,91%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-11,33; 4,57</t>
+          <t>-12,58; 3,34</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-11,34; 1,84</t>
+          <t>-11,89; 1,14</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,14 +1695,14 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-9,7; -0,29</t>
+          <t>-10,74; -1,23</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-3,43</t>
+          <t>-3,42</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>3,46</t>
+          <t>2,58</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-9,17</t>
+          <t>-10,71</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-1,79</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>9,85</t>
+          <t>11,68</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-8,01</t>
+          <t>-11,09</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-2,5</t>
+          <t>-2,05</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>7,08</t>
+          <t>7,39</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-8,52</t>
+          <t>-10,92</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-8,23; 1,82</t>
+          <t>-10,85; 3,47</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 8,21</t>
+          <t>-4,25; 9,45</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-13,8; -4,52</t>
+          <t>-17,07; -4,29</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-6,14; 2,23</t>
+          <t>-6,64; 5,65</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>6,49; 14,1</t>
+          <t>6,48; 16,77</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-12,12; -4,5</t>
+          <t>-16,1; -5,5</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 0,97</t>
+          <t>-6,54; 2,67</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>4,11; 9,93</t>
+          <t>3,29; 11,38</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-11,39; -5,45</t>
+          <t>-14,89; -6,85</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-4,33%</t>
+          <t>-4,39%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>4,36%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-11,57%</t>
+          <t>-13,75%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-2,23%</t>
+          <t>-1,1%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>12,28%</t>
+          <t>14,89%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-9,99%</t>
+          <t>-14,14%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-3,13%</t>
+          <t>-2,63%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>8,87%</t>
+          <t>9,45%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-10,68%</t>
+          <t>-13,96%</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-10,09; 2,32</t>
+          <t>-13,24; 4,61</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 10,65</t>
+          <t>-5,13; 12,6</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-16,89; -5,76</t>
+          <t>-20,74; -5,87</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-7,52; 2,85</t>
+          <t>-8,2; 7,61</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>7,91; 18,09</t>
+          <t>8,1; 22,56</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-14,62; -5,73</t>
+          <t>-19,66; -7,25</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-7,11; 1,26</t>
+          <t>-8,2; 3,49</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>5,06; 12,67</t>
+          <t>4,1; 15,0</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-13,95; -7,02</t>
+          <t>-18,46; -9,07</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-1,56</t>
+          <t>-3,66</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>11,48</t>
+          <t>4,47</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-7,14</t>
+          <t>-8,97</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>-2,84</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>12,49</t>
+          <t>7,98</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-7,54</t>
+          <t>-6,45</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>-3,16</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>12,0</t>
+          <t>6,6</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-7,32</t>
+          <t>-7,46</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 0,71</t>
+          <t>-11,07; 4,19</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>9,25; 13,44</t>
+          <t>-1,66; 11,32</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-10,5; -4,39</t>
+          <t>-16,05; -1,52</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1,0; 5,23</t>
+          <t>-9,38; 3,1</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>10,56; 14,63</t>
+          <t>2,78; 13,51</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-9,72; -5,32</t>
+          <t>-11,57; -0,89</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 2,4</t>
+          <t>-7,86; 1,75</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>10,47; 13,41</t>
+          <t>2,21; 10,9</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-9,56; -5,55</t>
+          <t>-11,86; -3,09</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-2,22%</t>
+          <t>-4,5%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>16,3%</t>
+          <t>5,51%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-10,13%</t>
+          <t>-11,05%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>4,15%</t>
+          <t>-3,46%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>17,28%</t>
+          <t>9,73%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-10,42%</t>
+          <t>-7,87%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>-3,87%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>16,81%</t>
+          <t>8,08%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-10,26%</t>
+          <t>-9,13%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>-12,73; 5,42</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-1,93; 14,87</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-18,84; -2,06</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>-10,89; 3,92</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>3,19; 17,32</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-13,52; -1,14</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-9,4; 2,25</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>2,63; 13,8</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-14,18; -3,96</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>-1,56</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>11,48</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>-11,9</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>3,0</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>12,49</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-9,75</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>0,77</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>12,0</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>-10,85</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-3,8; 0,71</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>9,25; 13,44</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-25,65; -6,63</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>1,0; 5,23</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>10,56; 14,63</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-14,6; -7,08</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-0,68; 2,4</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>10,47; 13,41</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>-19,69; -7,88</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>-2,22%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>16,3%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>-16,89%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>4,15%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>17,28%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>-13,49%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>1,07%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>16,81%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>-15,2%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>-5,29; 1,02</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>12,92; 19,52</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>-15,05; -6,43</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>-36,76; -9,51</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>1,37; 7,38</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>14,37; 20,64</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>-13,3; -7,45</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>-20,48; -10,0</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>-0,94; 3,39</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
+      <c r="J35" s="2" t="inlineStr">
         <is>
           <t>14,49; 18,99</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>-13,31; -7,87</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>-27,36; -11,06</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/P57GLOBAL_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P57GLOBAL_R-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,97; 6,01</t>
+          <t>-7,29; 5,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,7; 22,71</t>
+          <t>9,95; 21,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-25,23; -5,76</t>
+          <t>-25,37; -5,18</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 8,24</t>
+          <t>-3,69; 9,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,36; 22,02</t>
+          <t>10,75; 22,52</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-24,2; -5,99</t>
+          <t>-22,79; -5,13</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 5,56</t>
+          <t>-3,34; 6,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>12,25; 20,62</t>
+          <t>12,51; 20,87</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-21,72; -8,0</t>
+          <t>-21,6; -7,81</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-10,7; 10,2</t>
+          <t>-11,55; 9,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,54; 39,48</t>
+          <t>15,2; 37,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-40,24; -9,64</t>
+          <t>-40,42; -8,77</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,54; 13,5</t>
+          <t>-5,59; 15,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>15,54; 36,54</t>
+          <t>16,42; 38,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-36,39; -9,5</t>
+          <t>-35,2; -8,28</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 9,23</t>
+          <t>-5,23; 9,56</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>18,97; 34,56</t>
+          <t>19,5; 34,89</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-34,31; -13,31</t>
+          <t>-34,24; -13,12</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,83; 2,09</t>
+          <t>-8,01; 2,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,91; 17,95</t>
+          <t>8,78; 18,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-12,64; 1,37</t>
+          <t>-12,82; 1,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 8,87</t>
+          <t>-1,55; 8,51</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,71; 16,42</t>
+          <t>6,42; 16,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-39,96; -11,98</t>
+          <t>-37,8; -11,89</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 3,84</t>
+          <t>-3,29; 3,98</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,35; 15,95</t>
+          <t>9,69; 16,51</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-26,95; -7,58</t>
+          <t>-27,52; -8,01</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-11,24; 3,21</t>
+          <t>-11,37; 4,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,6; 27,19</t>
+          <t>12,46; 28,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-17,98; 2,07</t>
+          <t>-18,46; 3,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 13,28</t>
+          <t>-2,12; 12,68</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,42; 24,97</t>
+          <t>8,97; 24,56</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-56,0; -17,07</t>
+          <t>-54,49; -17,2</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 5,76</t>
+          <t>-4,72; 5,98</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,23; 23,95</t>
+          <t>13,74; 24,74</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-39,35; -11,37</t>
+          <t>-40,32; -11,87</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 6,37</t>
+          <t>-3,69; 6,13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,44; 17,47</t>
+          <t>7,45; 16,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-13,08; -1,13</t>
+          <t>-12,92; -1,6</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 9,71</t>
+          <t>-0,71; 9,23</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,59; 15,77</t>
+          <t>6,78; 15,87</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-15,43; -5,65</t>
+          <t>-15,64; -5,39</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 6,45</t>
+          <t>-0,4; 6,41</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>8,47; 14,7</t>
+          <t>8,42; 15,25</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-13,05; -4,96</t>
+          <t>-12,58; -4,78</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 9,45</t>
+          <t>-5,11; 9,03</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,32; 26,49</t>
+          <t>10,36; 24,87</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-17,87; -1,63</t>
+          <t>-17,88; -2,34</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 14,44</t>
+          <t>-0,96; 13,49</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>9,11; 23,08</t>
+          <t>9,12; 23,38</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-20,8; -8,07</t>
+          <t>-21,4; -7,9</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 9,36</t>
+          <t>-0,55; 9,38</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>11,64; 21,51</t>
+          <t>11,59; 22,19</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-17,8; -7,13</t>
+          <t>-17,21; -6,83</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,92; 3,99</t>
+          <t>-7,75; 2,89</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,39; 14,59</t>
+          <t>4,19; 14,52</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-54,79; -8,33</t>
+          <t>-55,04; -8,27</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,61; 14,75</t>
+          <t>3,82; 13,8</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>9,59; 19,48</t>
+          <t>9,59; 19,47</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-18,96; -2,95</t>
+          <t>-17,64; -2,67</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 7,19</t>
+          <t>-0,48; 7,18</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>8,5; 15,78</t>
+          <t>8,12; 15,28</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-41,15; -8,1</t>
+          <t>-40,32; -7,49</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-10,53; 5,38</t>
+          <t>-10,39; 4,04</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>5,81; 21,05</t>
+          <t>5,55; 21,08</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-71,95; -11,56</t>
+          <t>-72,52; -11,46</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,92; 21,91</t>
+          <t>5,12; 20,22</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>12,75; 28,74</t>
+          <t>13,06; 29,12</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-26,05; -4,33</t>
+          <t>-24,0; -3,98</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 10,44</t>
+          <t>-0,65; 10,23</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>11,38; 22,52</t>
+          <t>10,85; 21,78</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-56,66; -11,24</t>
+          <t>-55,06; -10,41</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-11,81; 1,92</t>
+          <t>-11,71; 1,48</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>5,55; 16,78</t>
+          <t>5,59; 17,43</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-9,44; 2,3</t>
+          <t>-9,67; 2,49</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-8,46; 3,85</t>
+          <t>-8,54; 3,71</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>4,63; 14,64</t>
+          <t>4,96; 15,09</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-9,62; 0,81</t>
+          <t>-9,15; 0,73</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-8,49; 1,03</t>
+          <t>-8,56; 0,77</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>6,37; 14,31</t>
+          <t>6,33; 14,07</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-8,18; -0,88</t>
+          <t>-8,03; -0,06</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-15,72; 2,84</t>
+          <t>-15,78; 2,07</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>7,38; 24,24</t>
+          <t>7,46; 25,54</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-12,58; 3,34</t>
+          <t>-12,76; 3,57</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-10,45; 5,18</t>
+          <t>-10,66; 4,8</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>5,86; 19,95</t>
+          <t>6,25; 20,66</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-11,89; 1,14</t>
+          <t>-11,47; 0,91</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-11,08; 1,42</t>
+          <t>-10,99; 1,03</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>8,56; 19,91</t>
+          <t>8,15; 19,46</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-10,74; -1,23</t>
+          <t>-10,31; -0,07</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-10,85; 3,47</t>
+          <t>-10,33; 3,75</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 9,45</t>
+          <t>-3,78; 8,95</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-17,07; -4,29</t>
+          <t>-16,98; -4,65</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-6,64; 5,65</t>
+          <t>-6,43; 5,15</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>6,48; 16,77</t>
+          <t>6,68; 17,1</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-16,1; -5,5</t>
+          <t>-16,21; -5,98</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-6,54; 2,67</t>
+          <t>-7,24; 2,27</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>3,29; 11,38</t>
+          <t>3,2; 11,55</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-14,89; -6,85</t>
+          <t>-15,25; -7,01</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-13,24; 4,61</t>
+          <t>-12,84; 4,85</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 12,6</t>
+          <t>-4,66; 12,14</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-20,74; -5,87</t>
+          <t>-20,65; -6,14</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-8,2; 7,61</t>
+          <t>-7,97; 6,83</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>8,1; 22,56</t>
+          <t>8,24; 22,94</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-19,66; -7,25</t>
+          <t>-19,71; -7,94</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-8,2; 3,49</t>
+          <t>-9,13; 3,0</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>4,1; 15,0</t>
+          <t>3,98; 15,12</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-18,46; -9,07</t>
+          <t>-19,02; -9,18</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-11,07; 4,19</t>
+          <t>-10,66; 4,46</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 11,32</t>
+          <t>-2,33; 11,3</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-16,05; -1,52</t>
+          <t>-15,32; -1,35</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-9,38; 3,1</t>
+          <t>-8,36; 3,8</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>2,78; 13,51</t>
+          <t>2,49; 13,73</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-11,57; -0,89</t>
+          <t>-11,5; -0,48</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-7,86; 1,75</t>
+          <t>-8,32; 1,66</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>2,21; 10,9</t>
+          <t>2,38; 10,94</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-11,86; -3,09</t>
+          <t>-11,28; -3,4</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-12,73; 5,42</t>
+          <t>-12,79; 5,82</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 14,87</t>
+          <t>-2,69; 14,75</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-18,84; -2,06</t>
+          <t>-18,07; -1,75</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-10,89; 3,92</t>
+          <t>-10,06; 4,77</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>3,19; 17,32</t>
+          <t>2,93; 17,9</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-13,52; -1,14</t>
+          <t>-13,44; -0,59</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-9,4; 2,25</t>
+          <t>-9,84; 2,06</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>2,63; 13,8</t>
+          <t>2,84; 13,83</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-14,18; -3,96</t>
+          <t>-13,37; -4,25</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 0,71</t>
+          <t>-3,81; 0,68</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>9,25; 13,44</t>
+          <t>9,39; 13,82</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-25,65; -6,63</t>
+          <t>-25,26; -6,42</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>1,0; 5,23</t>
+          <t>0,99; 5,2</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>10,56; 14,63</t>
+          <t>10,43; 14,45</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-14,6; -7,08</t>
+          <t>-13,74; -6,81</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 2,4</t>
+          <t>-0,78; 2,31</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>10,47; 13,41</t>
+          <t>10,6; 13,41</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-19,69; -7,88</t>
+          <t>-19,1; -7,57</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-5,29; 1,02</t>
+          <t>-5,34; 0,98</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>12,92; 19,52</t>
+          <t>13,08; 20,09</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-36,76; -9,51</t>
+          <t>-35,96; -9,21</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>1,37; 7,38</t>
+          <t>1,34; 7,32</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>14,37; 20,64</t>
+          <t>14,24; 20,41</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-20,48; -10,0</t>
+          <t>-18,93; -9,53</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 3,39</t>
+          <t>-1,09; 3,28</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>14,49; 18,99</t>
+          <t>14,65; 18,99</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-27,36; -11,06</t>
+          <t>-26,82; -10,67</t>
         </is>
       </c>
     </row>
